--- a/FamTec/FamTec/FamTec/Server/bin/Debug/net7.0/ExcelForm/민원(양식).xlsx
+++ b/FamTec/FamTec/FamTec/Server/bin/Debug/net7.0/ExcelForm/민원(양식).xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20880" windowHeight="7350"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20880" windowHeight="7350" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="건물정보" sheetId="1" r:id="rId1"/>
-    <sheet name="민원데이터" sheetId="2" r:id="rId2"/>
+    <sheet name="관리자정보" sheetId="3" r:id="rId2"/>
+    <sheet name="민원데이터" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,19 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
-  <si>
-    <t>민원제목</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>민원내용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>분류</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="46">
   <si>
     <t>분류코드</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -88,10 +77,6 @@
   </si>
   <si>
     <t>참고사항</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>처리담당자</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -217,55 +202,102 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>처리내용 입니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해당 줄은 예제입니다.
+해당줄 아래부터 작성해주세요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>건물정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>건물명칭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>성명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>민원제목 (*필수)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>민원내용 (*필수)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>분류 (*필수)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>처리중</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01000001234</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>민원처리상태 (*필수)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>건물 인덱스 (*필수)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>처리담당자 (*필수)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>처리일시
 (YYYY-MM-DD)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>기계</t>
-  </si>
-  <si>
-    <t>01000001234</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>처리중</t>
-  </si>
-  <si>
     <t>민원내용을 작성하시면 됩니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>처리내용 입니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>시스템관리자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>민원 제목을 작성하시면 됩니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>해당 줄은 예제입니다.
-해당줄 아래부터 작성해주세요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>건물정보</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>건물 인덱스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>건물명칭</t>
+    <t xml:space="preserve">민원 제목을 작성하시면 됩니다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>발생일시
+(YYYY-MM-DD)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025-03-10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>민원인 (* 필수)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>민원인을 입력하면 됩니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -274,7 +306,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="177" formatCode="0_ "/>
+    <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -597,12 +629,57 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -637,51 +714,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -966,8 +998,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -976,17 +1008,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="40" t="s">
-        <v>35</v>
-      </c>
-      <c r="B1" s="41"/>
+      <c r="A1" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="29"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="39" t="s">
-        <v>36</v>
-      </c>
-      <c r="B2" s="39" t="s">
-        <v>38</v>
+      <c r="A2" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1000,275 +1032,329 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V16"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.125" style="8" customWidth="1"/>
-    <col min="2" max="2" width="28.625" style="10" customWidth="1"/>
-    <col min="3" max="3" width="11.625" style="11" customWidth="1"/>
-    <col min="4" max="4" width="14.375" style="11" customWidth="1"/>
-    <col min="5" max="5" width="13.75" style="11" customWidth="1"/>
-    <col min="6" max="6" width="22.75" style="12" customWidth="1"/>
-    <col min="7" max="7" width="22.125" style="10" customWidth="1"/>
-    <col min="8" max="8" width="22.125" style="27" customWidth="1"/>
-    <col min="9" max="9" width="15.375" style="13" customWidth="1"/>
-    <col min="10" max="10" width="29.625" style="9" customWidth="1"/>
-    <col min="11" max="11" width="9" style="1"/>
-    <col min="12" max="12" width="11.125" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="9" style="1"/>
+    <col min="1" max="2" width="25.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="29"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:X16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="28.625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="28.625" style="10" customWidth="1"/>
+    <col min="3" max="3" width="23.75" style="10" customWidth="1"/>
+    <col min="4" max="4" width="11.625" style="11" customWidth="1"/>
+    <col min="5" max="5" width="14.375" style="11" customWidth="1"/>
+    <col min="6" max="6" width="13.625" style="11" customWidth="1"/>
+    <col min="7" max="7" width="22.875" style="11" customWidth="1"/>
+    <col min="8" max="8" width="22.875" style="12" customWidth="1"/>
+    <col min="9" max="9" width="22.125" style="10" customWidth="1"/>
+    <col min="10" max="10" width="22.125" style="14" customWidth="1"/>
+    <col min="11" max="11" width="18.5" style="27" customWidth="1"/>
+    <col min="12" max="12" width="29.625" style="9" customWidth="1"/>
+    <col min="13" max="13" width="9" style="1"/>
+    <col min="14" max="14" width="11.125" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="I1" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="K1" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="N1" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="O1" s="31"/>
+      <c r="Q1" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="R1" s="41"/>
+      <c r="S1" s="41"/>
+      <c r="T1" s="41"/>
+      <c r="U1" s="41"/>
+      <c r="V1" s="41"/>
+      <c r="W1" s="41"/>
+      <c r="X1" s="31"/>
+    </row>
+    <row r="2" spans="1:24" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="H2" s="18">
+        <v>45758</v>
+      </c>
+      <c r="I2" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="19">
+        <v>2</v>
+      </c>
+      <c r="K2" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="L2" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="N2" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="O2" s="31"/>
+      <c r="Q2" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="R2" s="33"/>
+      <c r="S2" s="33"/>
+      <c r="T2" s="33"/>
+      <c r="U2" s="33"/>
+      <c r="V2" s="33"/>
+      <c r="W2" s="33"/>
+      <c r="X2" s="34"/>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="N3" s="2">
         <v>1</v>
       </c>
-      <c r="C1" s="35" t="s">
+      <c r="O3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="35"/>
+      <c r="R3" s="36"/>
+      <c r="S3" s="36"/>
+      <c r="T3" s="36"/>
+      <c r="U3" s="36"/>
+      <c r="V3" s="36"/>
+      <c r="W3" s="36"/>
+      <c r="X3" s="37"/>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="N4" s="4">
         <v>2</v>
       </c>
-      <c r="D1" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="G1" s="35" t="s">
-        <v>14</v>
-      </c>
-      <c r="H1" s="37" t="s">
-        <v>37</v>
-      </c>
-      <c r="I1" s="38" t="s">
+      <c r="O4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q4" s="35"/>
+      <c r="R4" s="36"/>
+      <c r="S4" s="36"/>
+      <c r="T4" s="36"/>
+      <c r="U4" s="36"/>
+      <c r="V4" s="36"/>
+      <c r="W4" s="36"/>
+      <c r="X4" s="37"/>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="N5" s="4">
+        <v>3</v>
+      </c>
+      <c r="O5" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q5" s="35"/>
+      <c r="R5" s="36"/>
+      <c r="S5" s="36"/>
+      <c r="T5" s="36"/>
+      <c r="U5" s="36"/>
+      <c r="V5" s="36"/>
+      <c r="W5" s="36"/>
+      <c r="X5" s="37"/>
+    </row>
+    <row r="6" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N6" s="4">
+        <v>4</v>
+      </c>
+      <c r="O6" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q6" s="38"/>
+      <c r="R6" s="39"/>
+      <c r="S6" s="39"/>
+      <c r="T6" s="39"/>
+      <c r="U6" s="39"/>
+      <c r="V6" s="39"/>
+      <c r="W6" s="39"/>
+      <c r="X6" s="40"/>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="N7" s="4">
+        <v>5</v>
+      </c>
+      <c r="O7" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="N8" s="4">
+        <v>6</v>
+      </c>
+      <c r="O8" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="N9" s="4">
+        <v>7</v>
+      </c>
+      <c r="O9" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N10" s="6">
+        <v>8</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="12" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N12" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="O12" s="31"/>
+    </row>
+    <row r="13" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N13" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="O13" s="31"/>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="N14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="O14" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="15" t="s">
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="N15" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="O15" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N16" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>18</v>
-      </c>
-      <c r="M1" s="16"/>
-      <c r="O1" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="P1" s="26"/>
-      <c r="Q1" s="26"/>
-      <c r="R1" s="26"/>
-      <c r="S1" s="26"/>
-      <c r="T1" s="26"/>
-      <c r="U1" s="26"/>
-      <c r="V1" s="16"/>
-    </row>
-    <row r="2" spans="1:22" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2" s="29" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="E2" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="F2" s="31">
-        <v>45758</v>
-      </c>
-      <c r="G2" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="H2" s="32">
-        <v>2</v>
-      </c>
-      <c r="I2" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="J2" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="L2" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="M2" s="16"/>
-      <c r="O2" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="P2" s="18"/>
-      <c r="Q2" s="18"/>
-      <c r="R2" s="18"/>
-      <c r="S2" s="18"/>
-      <c r="T2" s="18"/>
-      <c r="U2" s="18"/>
-      <c r="V2" s="19"/>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="L3" s="2">
-        <v>1</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O3" s="20"/>
-      <c r="P3" s="21"/>
-      <c r="Q3" s="21"/>
-      <c r="R3" s="21"/>
-      <c r="S3" s="21"/>
-      <c r="T3" s="21"/>
-      <c r="U3" s="21"/>
-      <c r="V3" s="22"/>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="L4" s="4">
-        <v>2</v>
-      </c>
-      <c r="M4" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="O4" s="20"/>
-      <c r="P4" s="21"/>
-      <c r="Q4" s="21"/>
-      <c r="R4" s="21"/>
-      <c r="S4" s="21"/>
-      <c r="T4" s="21"/>
-      <c r="U4" s="21"/>
-      <c r="V4" s="22"/>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="L5" s="4">
-        <v>3</v>
-      </c>
-      <c r="M5" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="O5" s="20"/>
-      <c r="P5" s="21"/>
-      <c r="Q5" s="21"/>
-      <c r="R5" s="21"/>
-      <c r="S5" s="21"/>
-      <c r="T5" s="21"/>
-      <c r="U5" s="21"/>
-      <c r="V5" s="22"/>
-    </row>
-    <row r="6" spans="1:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="L6" s="4">
-        <v>4</v>
-      </c>
-      <c r="M6" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="O6" s="23"/>
-      <c r="P6" s="24"/>
-      <c r="Q6" s="24"/>
-      <c r="R6" s="24"/>
-      <c r="S6" s="24"/>
-      <c r="T6" s="24"/>
-      <c r="U6" s="24"/>
-      <c r="V6" s="25"/>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="L7" s="4">
-        <v>5</v>
-      </c>
-      <c r="M7" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="L8" s="4">
-        <v>6</v>
-      </c>
-      <c r="M8" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="L9" s="4">
-        <v>7</v>
-      </c>
-      <c r="M9" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="L10" s="6">
-        <v>8</v>
-      </c>
-      <c r="M10" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="12" spans="1:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="L12" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="M12" s="16"/>
-    </row>
-    <row r="13" spans="1:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="L13" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="M13" s="16"/>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="L14" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="L15" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="M15" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="L16" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="M16" s="7" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="O2:V6"/>
-    <mergeCell ref="O1:V1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="Q2:X6"/>
+    <mergeCell ref="Q1:X1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="N2:O2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576">
-      <formula1>$M$3:$M$10</formula1>
+  <dataValidations count="6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576">
+      <formula1>$O$3:$O$10</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E1048576">
-      <formula1>$M$14:$M$16</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1048576">
+      <formula1>$O$14:$O$16</formula1>
     </dataValidation>
-    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576">
+    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E1048576">
       <formula1>10</formula1>
       <formula2>11</formula2>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showErrorMessage="1" promptTitle="값 입력 오류." prompt="0보다 큰 수만 입력가능합니다." sqref="H1:H1048576">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showErrorMessage="1" promptTitle="값 입력 오류." prompt="0보다 큰 수만 입력가능합니다." sqref="J1:J1048576">
       <formula1>0</formula1>
     </dataValidation>
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1:K1048576">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C1048576"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
